--- a/data/case1/2/cost_1.xlsx
+++ b/data/case1/2/cost_1.xlsx
@@ -63,13 +63,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>161.30388488123972</v>
+        <v>161.29028610939014</v>
       </c>
       <c r="B1" s="0">
-        <v>4.330439537807651</v>
+        <v>4.8759252184478186</v>
       </c>
       <c r="C1" s="0">
-        <v>4.9086757990867582</v>
+        <v>3.9138943248532292</v>
       </c>
     </row>
   </sheetData>
